--- a/某单位结算清单（存储数据类型）.xlsx
+++ b/某单位结算清单（存储数据类型）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\computer\auto-quotation software system\quotedesktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264CC573-B80D-4734-9C72-80859028F1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14529A1B-98E5-42D0-B77E-46CB5F133E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19395" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>PS.项目序号按顺序自动生成，内容、数量、价格必填，总价、数量、价格、项目图片、材料、规格尺寸、经办人、备注选填。总价=数量*价格，所有总价求和=合计。数据结构：内容、材料、经办人、备注是字符串型；序号是整型；规格尺寸、数量、价格、合计是数字；项目图片是图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -439,6 +443,11 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
